--- a/VersionRecords/Version 5.1.1/定时器/新增定时器 (EQ组).xlsx
+++ b/VersionRecords/Version 5.1.1/定时器/新增定时器 (EQ组).xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\gitRepertory\Mogo_Doc\VersionRecords\Version 5.1.1\定时器\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitDoc\Mogo_Doc\VersionRecords\Version 5.1.1\定时器\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="54">
   <si>
     <t>定时器大类</t>
   </si>
@@ -149,11 +149,95 @@
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>mogoroom-tasktracker</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoomOffInfoTask</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoomOffInfoTask</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史房源下架次数扫描</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>王向阳</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>王岩</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送昨日聚有财放款短信</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史房源下架次数扫描</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.task.RoomOffInfoTask</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"taskImpl":"com.mogoroom.tasktracker.task.RoomOffInfoTask"}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>定时每天任务</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日05:00:00执行</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>不尝试重复执行，如有错，需开发修复</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>RiskSpecialListTask</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>风控名单失效</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>张浩</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>张浩</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改风控名单失效状态</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.task.RiskSpecialListTask</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"taskImpl":"com.mogoroom.tasktracker.task.RiskSpecialListTask"}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据错误日志，查询原因，进行修复</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -679,10 +763,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -706,7 +790,7 @@
     <col min="19" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -762,7 +846,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="13" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:23" s="13" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
         <v>21</v>
       </c>
@@ -815,6 +899,124 @@
       <c r="R2" s="23">
         <v>42696</v>
       </c>
+    </row>
+    <row r="3" spans="1:23" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A3" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="11"/>
+      <c r="I3" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="O3" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="P3" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q3" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="R3" s="23">
+        <v>42692</v>
+      </c>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="13"/>
+      <c r="W3" s="13"/>
+    </row>
+    <row r="4" spans="1:23" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A4" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="11"/>
+      <c r="I4" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="L4" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="M4" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="N4" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="P4" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q4" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="R4" s="23">
+        <v>42692</v>
+      </c>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13"/>
+      <c r="W4" s="13"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:XFD2"/>

--- a/VersionRecords/Version 5.1.1/定时器/新增定时器 (EQ组).xlsx
+++ b/VersionRecords/Version 5.1.1/定时器/新增定时器 (EQ组).xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="87">
   <si>
     <t>定时器大类</t>
   </si>
@@ -233,12 +233,183 @@
     <t>根据错误日志，查询原因，进行修复</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>mogoroom-tasktracker</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>FlatRoomPictureTask</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>MsgSendPayPlanTask</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送聚有财放款短信</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>吕崇新</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>吕崇新</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨斌</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>未上线</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送昨日聚有财放款短信</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>MsgSendPayPlanTask</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.task.MsgSendPayPlanTask</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"taskImpl":"com.mogoroom.tasktracker.task.MsgSendPayPlanTask"}</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>定时每天任务</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>每日0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>9:00:00执行</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>不尝试重复执行，如有错，需开发修复</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoomOffInfoTask</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史房源下架次数扫描</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>王向阳</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>王岩</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.task.RoomOffInfoTask</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"taskImpl":"com.mogoroom.tasktracker.task.RoomOffInfoTask"}</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>定时每天任务</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>每日05</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>:00:00执行</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>不尝试重复执行，如有错，需开发修复</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>RiskSpecialListTask</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>风控名单失效</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>张浩</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>王岩</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改风控名单失效状态</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.task.RiskSpecialListTask</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"taskImpl":"com.mogoroom.tasktracker.task.RiskSpecialListTask"}</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>每日05</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>:00:00执行</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据错误日志，查询原因，进行修复</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -304,6 +475,13 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -763,10 +941,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W4"/>
+  <dimension ref="A1:AS7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -790,7 +968,7 @@
     <col min="19" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:45" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -846,7 +1024,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="13" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:45" s="13" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
         <v>21</v>
       </c>
@@ -900,7 +1078,7 @@
         <v>42696</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:45" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
         <v>33</v>
       </c>
@@ -959,7 +1137,7 @@
       <c r="V3" s="13"/>
       <c r="W3" s="13"/>
     </row>
-    <row r="4" spans="1:23" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:45" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="22" t="s">
         <v>21</v>
       </c>
@@ -1017,6 +1195,222 @@
       <c r="U4" s="13"/>
       <c r="V4" s="13"/>
       <c r="W4" s="13"/>
+    </row>
+    <row r="5" spans="1:45" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A5" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" s="11"/>
+      <c r="I5" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="L5" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="M5" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="N5" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="O5" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="P5" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q5" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="R5" s="23">
+        <v>38353</v>
+      </c>
+    </row>
+    <row r="6" spans="1:45" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A6" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="H6" s="11"/>
+      <c r="I6" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="L6" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="M6" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="N6" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="O6" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="P6" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q6" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="R6" s="23">
+        <v>42692</v>
+      </c>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="13"/>
+      <c r="Y6" s="13"/>
+      <c r="Z6" s="13"/>
+      <c r="AA6" s="13"/>
+      <c r="AB6" s="13"/>
+      <c r="AC6" s="13"/>
+      <c r="AD6" s="13"/>
+      <c r="AE6" s="13"/>
+      <c r="AF6" s="13"/>
+      <c r="AG6" s="13"/>
+      <c r="AH6" s="13"/>
+      <c r="AI6" s="13"/>
+      <c r="AJ6" s="13"/>
+      <c r="AK6" s="13"/>
+      <c r="AL6" s="13"/>
+      <c r="AM6" s="13"/>
+      <c r="AN6" s="13"/>
+      <c r="AO6" s="13"/>
+      <c r="AP6" s="13"/>
+      <c r="AQ6" s="13"/>
+      <c r="AR6" s="13"/>
+      <c r="AS6" s="13"/>
+    </row>
+    <row r="7" spans="1:45" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A7" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="H7" s="11"/>
+      <c r="I7" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="L7" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="M7" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="N7" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="O7" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="P7" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q7" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="R7" s="23">
+        <v>42692</v>
+      </c>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="13"/>
+      <c r="W7" s="13"/>
+      <c r="X7" s="13"/>
+      <c r="Y7" s="13"/>
+      <c r="Z7" s="13"/>
+      <c r="AA7" s="13"/>
+      <c r="AB7" s="13"/>
+      <c r="AC7" s="13"/>
+      <c r="AD7" s="13"/>
+      <c r="AE7" s="13"/>
+      <c r="AF7" s="13"/>
+      <c r="AG7" s="13"/>
+      <c r="AH7" s="13"/>
+      <c r="AI7" s="13"/>
+      <c r="AJ7" s="13"/>
+      <c r="AK7" s="13"/>
+      <c r="AL7" s="13"/>
+      <c r="AM7" s="13"/>
+      <c r="AN7" s="13"/>
+      <c r="AO7" s="13"/>
+      <c r="AP7" s="13"/>
+      <c r="AQ7" s="13"/>
+      <c r="AR7" s="13"/>
+      <c r="AS7" s="13"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:XFD2"/>

--- a/VersionRecords/Version 5.1.1/定时器/新增定时器 (EQ组).xlsx
+++ b/VersionRecords/Version 5.1.1/定时器/新增定时器 (EQ组).xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>定时器大类</t>
   </si>
@@ -149,267 +149,12 @@
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
-  <si>
-    <t>mogoroom-tasktracker</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>RoomOffInfoTask</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>RoomOffInfoTask</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>历史房源下架次数扫描</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>王向阳</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>王岩</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>发送昨日聚有财放款短信</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>历史房源下架次数扫描</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.mogoroom.tasktracker.task.RoomOffInfoTask</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"taskImpl":"com.mogoroom.tasktracker.task.RoomOffInfoTask"}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>定时每天任务</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>每日05:00:00执行</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>不尝试重复执行，如有错，需开发修复</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>RiskSpecialListTask</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>风控名单失效</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>张浩</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>张浩</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改风控名单失效状态</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.mogoroom.tasktracker.task.RiskSpecialListTask</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"taskImpl":"com.mogoroom.tasktracker.task.RiskSpecialListTask"}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据错误日志，查询原因，进行修复</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>mogoroom-tasktracker</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>FlatRoomPictureTask</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>MsgSendPayPlanTask</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>发送聚有财放款短信</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>吕崇新</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>吕崇新</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨斌</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>未上线</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>发送昨日聚有财放款短信</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>MsgSendPayPlanTask</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.mogoroom.tasktracker.task.MsgSendPayPlanTask</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"taskImpl":"com.mogoroom.tasktracker.task.MsgSendPayPlanTask"}</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>定时每天任务</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>每日0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>9:00:00执行</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>不尝试重复执行，如有错，需开发修复</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>RoomOffInfoTask</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>历史房源下架次数扫描</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>王向阳</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>王岩</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.mogoroom.tasktracker.task.RoomOffInfoTask</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"taskImpl":"com.mogoroom.tasktracker.task.RoomOffInfoTask"}</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>定时每天任务</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>每日05</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>:00:00执行</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>不尝试重复执行，如有错，需开发修复</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>RiskSpecialListTask</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>风控名单失效</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>张浩</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>王岩</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改风控名单失效状态</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.mogoroom.tasktracker.task.RiskSpecialListTask</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"taskImpl":"com.mogoroom.tasktracker.task.RiskSpecialListTask"}</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>每日05</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>:00:00执行</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据错误日志，查询原因，进行修复</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -475,13 +220,6 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -941,10 +679,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AS7"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -968,7 +706,7 @@
     <col min="19" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1024,7 +762,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:45" s="13" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:18" s="13" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
         <v>21</v>
       </c>
@@ -1077,340 +815,6 @@
       <c r="R2" s="23">
         <v>42696</v>
       </c>
-    </row>
-    <row r="3" spans="1:45" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="L3" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="M3" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="N3" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="O3" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="P3" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q3" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="R3" s="23">
-        <v>42692</v>
-      </c>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="13"/>
-      <c r="V3" s="13"/>
-      <c r="W3" s="13"/>
-    </row>
-    <row r="4" spans="1:45" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="11"/>
-      <c r="I4" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="L4" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="M4" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="N4" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="O4" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="P4" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q4" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="R4" s="23">
-        <v>42692</v>
-      </c>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="13"/>
-      <c r="V4" s="13"/>
-      <c r="W4" s="13"/>
-    </row>
-    <row r="5" spans="1:45" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="H5" s="11"/>
-      <c r="I5" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="L5" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="M5" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="N5" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="O5" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="P5" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q5" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="R5" s="23">
-        <v>38353</v>
-      </c>
-    </row>
-    <row r="6" spans="1:45" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="H6" s="11"/>
-      <c r="I6" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="J6" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="L6" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="M6" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="N6" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="O6" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="P6" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q6" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="R6" s="23">
-        <v>42692</v>
-      </c>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="13"/>
-      <c r="V6" s="13"/>
-      <c r="W6" s="13"/>
-      <c r="X6" s="13"/>
-      <c r="Y6" s="13"/>
-      <c r="Z6" s="13"/>
-      <c r="AA6" s="13"/>
-      <c r="AB6" s="13"/>
-      <c r="AC6" s="13"/>
-      <c r="AD6" s="13"/>
-      <c r="AE6" s="13"/>
-      <c r="AF6" s="13"/>
-      <c r="AG6" s="13"/>
-      <c r="AH6" s="13"/>
-      <c r="AI6" s="13"/>
-      <c r="AJ6" s="13"/>
-      <c r="AK6" s="13"/>
-      <c r="AL6" s="13"/>
-      <c r="AM6" s="13"/>
-      <c r="AN6" s="13"/>
-      <c r="AO6" s="13"/>
-      <c r="AP6" s="13"/>
-      <c r="AQ6" s="13"/>
-      <c r="AR6" s="13"/>
-      <c r="AS6" s="13"/>
-    </row>
-    <row r="7" spans="1:45" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="H7" s="11"/>
-      <c r="I7" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="L7" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="M7" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="N7" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="O7" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="P7" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q7" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="R7" s="23">
-        <v>42692</v>
-      </c>
-      <c r="S7" s="13"/>
-      <c r="T7" s="13"/>
-      <c r="U7" s="13"/>
-      <c r="V7" s="13"/>
-      <c r="W7" s="13"/>
-      <c r="X7" s="13"/>
-      <c r="Y7" s="13"/>
-      <c r="Z7" s="13"/>
-      <c r="AA7" s="13"/>
-      <c r="AB7" s="13"/>
-      <c r="AC7" s="13"/>
-      <c r="AD7" s="13"/>
-      <c r="AE7" s="13"/>
-      <c r="AF7" s="13"/>
-      <c r="AG7" s="13"/>
-      <c r="AH7" s="13"/>
-      <c r="AI7" s="13"/>
-      <c r="AJ7" s="13"/>
-      <c r="AK7" s="13"/>
-      <c r="AL7" s="13"/>
-      <c r="AM7" s="13"/>
-      <c r="AN7" s="13"/>
-      <c r="AO7" s="13"/>
-      <c r="AP7" s="13"/>
-      <c r="AQ7" s="13"/>
-      <c r="AR7" s="13"/>
-      <c r="AS7" s="13"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:XFD2"/>
